--- a/Эргономика/Лист Microsoft Excel.xlsx
+++ b/Эргономика/Лист Microsoft Excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>Столбцы</t>
   </si>
@@ -65,6 +65,12 @@
   <si>
     <t>15 столбцов</t>
   </si>
+  <si>
+    <t>Относительная погрешность</t>
+  </si>
+  <si>
+    <t>Абсолютная погрешность, мс</t>
+  </si>
 </sst>
 </file>
 
@@ -72,7 +78,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="164" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -124,15 +130,6 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -151,8 +148,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -190,250 +194,219 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Аркуш1!$B$3:$C$3</c:f>
+              <c:f>Аркуш1!$D$1:$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Теоретическое время выполнения</c:v>
+                  <c:v>Строки</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5 столбцов</c:v>
+                  <c:v>10 000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Аркуш1!$D$1:$G$2</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>10 000</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>100 000</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>200 000</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>300 000</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Строки</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>Аркуш1!$C$3:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5 столбцов</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10 столбцов</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15 столбцов</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Аркуш1!$D$3:$G$3</c:f>
+              <c:f>Аркуш1!$D$3:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>76.233720360000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1047.9658119999999</c:v>
+                  <c:v>142.74624750000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2306.6380709999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3659.3717149999998</c:v>
+                  <c:v>213.39326070000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-E0B7-4268-AF9E-628A252A25FD}"/>
+              <c16:uniqueId val="{0000000A-C006-471D-A87D-6667B0F90D15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$E$1:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Строки</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100 000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Аркуш1!$C$3:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5 столбцов</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10 столбцов</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15 столбцов</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1047.9658119999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1962.296822</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2933.4635720000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-C006-471D-A87D-6667B0F90D15}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Аркуш1!$B$6:$C$6</c:f>
+              <c:f>Аркуш1!$F$1:$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Экспериментальное время выполнения</c:v>
+                  <c:v>Строки</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5 столбцов</c:v>
+                  <c:v>200 000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Аркуш1!$D$1:$G$2</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>10 000</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>100 000</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>200 000</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>300 000</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Строки</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>Аркуш1!$C$3:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5 столбцов</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10 столбцов</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15 столбцов</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Аркуш1!$D$6:$G$6</c:f>
+              <c:f>Аркуш1!$F$3:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>118.69799999999999</c:v>
+                  <c:v>2306.6380709999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>819.4866667</c:v>
+                  <c:v>4319.1376129999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3835.2730000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5686.8826669999999</c:v>
+                  <c:v>6456.7361639999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-E0B7-4268-AF9E-628A252A25FD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Аркуш1!$B$4:$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Теоретическое время выполнения</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10 столбцов</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Аркуш1!$D$1:$G$2</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>10 000</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>100 000</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>200 000</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>300 000</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Строки</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Аркуш1!$D$4:$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>142.74624750000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1962.296822</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4319.1376129999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6852.1066270000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-E0B7-4268-AF9E-628A252A25FD}"/>
+              <c16:uniqueId val="{0000000C-C006-471D-A87D-6667B0F90D15}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -442,241 +415,69 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Аркуш1!$B$7:$C$7</c:f>
+              <c:f>Аркуш1!$G$1:$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Экспериментальное время выполнения</c:v>
+                  <c:v>Строки</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10 столбцов</c:v>
+                  <c:v>300 000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Аркуш1!$D$1:$G$2</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>10 000</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>100 000</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>200 000</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>300 000</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Строки</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>Аркуш1!$C$3:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5 столбцов</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10 столбцов</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15 столбцов</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Аркуш1!$D$7:$G$7</c:f>
+              <c:f>Аркуш1!$G$3:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>117.846</c:v>
+                  <c:v>3659.3717149999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1125.921333</c:v>
+                  <c:v>6852.1066270000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4461.3969999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7657.5866670000005</c:v>
+                  <c:v>10243.30517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-E0B7-4268-AF9E-628A252A25FD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Аркуш1!$B$5:$C$5</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Теоретическое время выполнения</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15 столбцов</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Аркуш1!$D$1:$G$2</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>10 000</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>100 000</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>200 000</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>300 000</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Строки</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Аркуш1!$D$5:$G$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>213.39326070000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2933.4635720000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6456.7361639999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10243.30517</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-E0B7-4268-AF9E-628A252A25FD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Аркуш1!$B$8:$C$8</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Экспериментальное время выполнения</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15 столбцов</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Аркуш1!$D$1:$G$2</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>10 000</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>100 000</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>200 000</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>300 000</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Строки</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Аркуш1!$D$8:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>154.1826667</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3172.1683330000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5985.99</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8049.6593329999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-E0B7-4268-AF9E-628A252A25FD}"/>
+              <c16:uniqueId val="{0000000D-C006-471D-A87D-6667B0F90D15}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -688,11 +489,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:smooth val="0"/>
         <c:axId val="475304224"/>
         <c:axId val="475305056"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="475304224"/>
         <c:scaling>
@@ -786,7 +586,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>Время выполнения</a:t>
+                  <a:t>Время выполнения, мс</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1004,6 +804,15 @@
                   <c:pt idx="0">
                     <c:v>Строки</c:v>
                   </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Строки</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Строки</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Строки</c:v>
+                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
@@ -1085,6 +894,15 @@
                   <c:pt idx="0">
                     <c:v>Строки</c:v>
                   </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Строки</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Строки</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Строки</c:v>
+                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
@@ -1166,6 +984,15 @@
                   <c:pt idx="0">
                     <c:v>Строки</c:v>
                   </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Строки</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Строки</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Строки</c:v>
+                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
@@ -1247,6 +1074,15 @@
                   <c:pt idx="0">
                     <c:v>Строки</c:v>
                   </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Строки</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Строки</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Строки</c:v>
+                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
@@ -1328,6 +1164,15 @@
                   <c:pt idx="0">
                     <c:v>Строки</c:v>
                   </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Строки</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Строки</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Строки</c:v>
+                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
@@ -1407,6 +1252,15 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>Строки</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Строки</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Строки</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>Строки</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1546,7 +1400,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>Время выполнения</a:t>
+                  <a:t>Время выполнения, мс</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1693,6 +1547,2498 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Строки</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10 000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Аркуш1!$C$3:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5 столбцов</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10 столбцов</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15 столбцов</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$D$6:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>118.69799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117.846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154.1826667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4EAD-4F98-8C5F-624395E5EBA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$E$1:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Строки</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100 000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Аркуш1!$C$3:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5 столбцов</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10 столбцов</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15 столбцов</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$E$6:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>819.4866667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1125.921333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3172.1683330000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4EAD-4F98-8C5F-624395E5EBA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$F$1:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Строки</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200 000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Аркуш1!$C$3:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5 столбцов</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10 столбцов</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15 столбцов</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$F$6:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3835.2730000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4461.3969999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5985.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4EAD-4F98-8C5F-624395E5EBA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$G$1:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Строки</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300 000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Аркуш1!$C$3:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5 столбцов</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10 столбцов</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15 столбцов</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$G$6:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5686.8826669999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7657.5866670000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8049.6593329999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4EAD-4F98-8C5F-624395E5EBA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="475304224"/>
+        <c:axId val="475305056"/>
+        <c:extLst/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="475304224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475305056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="475305056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время выполнения, мс</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475304224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$S$2:$S$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Столбец</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Аркуш1!$Q$3:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0_ ;\-#\ ##0\ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$T$3:$T$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.3577505909113885</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27880764213048775</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3985726515426673</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35652413997659854</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000027-03A4-4160-8D82-406E3E52296E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$R$7:$S$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Столбец 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Аркуш1!$Q$3:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0_ ;\-#\ ##0\ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$T$7:$T$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.21129480423603691</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74283652373073916</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1886735701844075E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10518719213080246</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000028-03A4-4160-8D82-406E3E52296E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$R$11:$S$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Столбец 15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Аркуш1!$Q$3:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0_ ;\-#\ ##0\ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$T$11:$T$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.3840288617864463</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5249714372582113E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8641321485669061E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.272514120940129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000029-03A4-4160-8D82-406E3E52296E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="275883696"/>
+        <c:axId val="275884112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="275883696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Строки</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#\ ##0_ ;\-#\ ##0\ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="275884112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="275884112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Относительная погрешность</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="275883696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$S$2:$S$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Столбец</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Аркуш1!$Q$3:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0_ ;\-#\ ##0\ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$U$3:$U$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>42.464279639999987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>228.47914529999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1528.6349290000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2027.5109520000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7685-4691-8F9D-B2DC08323311}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$R$7:$S$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Столбец 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Аркуш1!$Q$3:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0_ ;\-#\ ##0\ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$U$7:$U$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24.900247500000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>836.37548900000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142.25938700000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>805.48004000000037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7685-4691-8F9D-B2DC08323311}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$R$11:$S$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Столбец 15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Аркуш1!$Q$3:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0_ ;\-#\ ##0\ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$U$11:$U$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>59.210594000000015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>238.70476099999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>470.74616400000014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2193.645837</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7685-4691-8F9D-B2DC08323311}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="275883696"/>
+        <c:axId val="275884112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="275883696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Строки</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#\ ##0_ ;\-#\ ##0\ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="275884112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="275884112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Абсолютная погрешность, мс</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="275883696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t, мс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Аркуш1!$D$1:$G$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10 000</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>100 000</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>200 000</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>300 000</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Строки</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Строки</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Строки</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Строки</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$D$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>118.69799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>819.4866667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3835.2730000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5686.8826669999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6656-4FD6-A61F-9AD14EF8BBA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="497726592"/>
+        <c:axId val="497722432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="497726592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497722432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="497722432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время исполнения, мс</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497726592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Аркуш1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t, мс</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Аркуш1!$C$6:$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5 столбцов</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10 столбцов</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15 столбцов</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Аркуш1!$F$6:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3835.2730000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4461.3969999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5985.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6F90-41CF-93ED-B73DFDE54FEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="497726592"/>
+        <c:axId val="497722432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="497726592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Столбцы</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497722432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="497722432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время исполнения, мс</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497726592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1773,6 +4119,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2779,20 +5325,2561 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2438399</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2813,16 +7900,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2438399</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2836,6 +7923,162 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>500061</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>261939</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3107,10 +8350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3126,499 +8369,689 @@
     <col min="14" max="14" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="E1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="2">
         <v>10000</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="2">
         <v>100000</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="2">
         <v>200000</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="2">
         <v>300000</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="U2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <f>1000*0.07623372036</f>
         <v>76.233720360000007</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <f>1000*1.047965812</f>
         <v>1047.9658119999999</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <f>1000*2.306638071</f>
         <v>2306.6380709999999</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <f>1000*3.659371715</f>
         <v>3659.3717149999998</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="8">
         <v>10000</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>5</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <f>D6</f>
         <v>118.69799999999999</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <f>D3</f>
         <v>76.233720360000007</v>
       </c>
-      <c r="M3" s="8">
-        <f>ABS(K3-L3)/K3</f>
+      <c r="M3" s="5">
+        <f>ABS($K3-$L3)/$K3</f>
         <v>0.3577505909113885</v>
       </c>
-      <c r="N3" s="2">
-        <f>ABS(K3-L3)</f>
+      <c r="N3" s="1">
+        <f>ABS($K3-$L3)</f>
         <v>42.464279639999987</v>
       </c>
+      <c r="Q3" s="8">
+        <v>10000</v>
+      </c>
+      <c r="S3" s="1">
+        <v>5</v>
+      </c>
+      <c r="T3" s="5">
+        <f>ABS($K3-$L3)/$K3</f>
+        <v>0.3577505909113885</v>
+      </c>
+      <c r="U3" s="1">
+        <f>ABS($K3-$L3)</f>
+        <v>42.464279639999987</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <f>1000*0.1427462475</f>
         <v>142.74624750000001</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <f>1000*1.962296822</f>
         <v>1962.296822</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <f>1000*4.319137613</f>
         <v>4319.1376129999999</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <f>1000*6.852106627</f>
         <v>6852.1066270000001</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="8">
         <v>10000</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>10</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <f t="shared" ref="K4:K5" si="0">D7</f>
         <v>117.846</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <f t="shared" ref="L4:L5" si="1">D4</f>
         <v>142.74624750000001</v>
       </c>
-      <c r="M4" s="8">
-        <f t="shared" ref="M4:M14" si="2">ABS(K4-L4)/K4</f>
+      <c r="M4" s="5">
+        <f t="shared" ref="M4:M14" si="2">ABS($K4-$L4)/$K4</f>
         <v>0.21129480423603691</v>
       </c>
-      <c r="N4" s="2">
-        <f t="shared" ref="N4:N14" si="3">ABS(K4-L4)</f>
+      <c r="N4" s="1">
+        <f t="shared" ref="N4:N14" si="3">ABS($K4-$L4)</f>
         <v>24.900247500000006</v>
       </c>
+      <c r="Q4" s="8">
+        <v>100000</v>
+      </c>
+      <c r="S4" s="1">
+        <v>5</v>
+      </c>
+      <c r="T4" s="5">
+        <f>ABS($K6-$L6)/$K6</f>
+        <v>0.27880764213048775</v>
+      </c>
+      <c r="U4" s="1">
+        <f>N6</f>
+        <v>228.47914529999991</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="10" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <f>1000*0.2133932607</f>
         <v>213.39326070000001</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <f>1000*2.933463572</f>
         <v>2933.4635720000001</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <f>1000*6.456736164</f>
         <v>6456.7361639999999</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <f>1000*10.24330517</f>
         <v>10243.30517</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="8">
         <v>10000</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>15</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <f t="shared" si="0"/>
         <v>154.1826667</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <f t="shared" si="1"/>
         <v>213.39326070000001</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="5">
         <f t="shared" si="2"/>
         <v>0.3840288617864463</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <f t="shared" si="3"/>
         <v>59.210594000000015</v>
       </c>
+      <c r="Q5" s="8">
+        <v>200000</v>
+      </c>
+      <c r="S5" s="1">
+        <v>5</v>
+      </c>
+      <c r="T5" s="5">
+        <f>ABS($K9-$L9)/$K9</f>
+        <v>0.3985726515426673</v>
+      </c>
+      <c r="U5" s="1">
+        <f>N9</f>
+        <v>1528.6349290000003</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <f>1000*0.118698</f>
         <v>118.69799999999999</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <f>1000*0.8194866667</f>
         <v>819.4866667</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <f>1000*3.835273</f>
         <v>3835.2730000000001</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <f>1000*5.686882667</f>
         <v>5686.8826669999999</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="8">
         <v>100000</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>5</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <f>E6</f>
         <v>819.4866667</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <f>E3</f>
         <v>1047.9658119999999</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="5">
         <f t="shared" si="2"/>
         <v>0.27880764213048775</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <f t="shared" si="3"/>
         <v>228.47914529999991</v>
       </c>
+      <c r="Q6" s="8">
+        <v>300000</v>
+      </c>
+      <c r="S6" s="1">
+        <v>5</v>
+      </c>
+      <c r="T6" s="5">
+        <f>ABS($K12-$L12)/$K12</f>
+        <v>0.35652413997659854</v>
+      </c>
+      <c r="U6" s="1">
+        <f>N12</f>
+        <v>2027.5109520000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="10" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <f>1000*0.117846</f>
         <v>117.846</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <f>1000*1.125921333</f>
         <v>1125.921333</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <f>1000*4.461397</f>
         <v>4461.3969999999999</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <f>1000*7.657586667</f>
         <v>7657.5866670000005</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="8">
         <v>100000</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>10</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <f t="shared" ref="K7:K8" si="4">E7</f>
         <v>1125.921333</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <f t="shared" ref="L7:L8" si="5">E4</f>
         <v>1962.296822</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="5">
         <f t="shared" si="2"/>
         <v>0.74283652373073916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <f t="shared" si="3"/>
         <v>836.37548900000002</v>
       </c>
+      <c r="Q7" s="8">
+        <v>10000</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="1">
+        <v>10</v>
+      </c>
+      <c r="T7" s="5">
+        <f>ABS($K4-$L4)/$K4</f>
+        <v>0.21129480423603691</v>
+      </c>
+      <c r="U7" s="1">
+        <f>N4</f>
+        <v>24.900247500000006</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="10" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <f>1000*0.1541826667</f>
         <v>154.1826667</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <f>1000*3.172168333</f>
         <v>3172.1683330000001</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <f>1000*5.98599</f>
         <v>5985.99</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <f>1000*8.049659333</f>
         <v>8049.6593329999996</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="8">
         <v>100000</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>15</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <f t="shared" si="4"/>
         <v>3172.1683330000001</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <f t="shared" si="5"/>
         <v>2933.4635720000001</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="5">
         <f t="shared" si="2"/>
         <v>7.5249714372582113E-2</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <f t="shared" si="3"/>
         <v>238.70476099999996</v>
       </c>
+      <c r="Q8" s="8">
+        <v>100000</v>
+      </c>
+      <c r="S8" s="1">
+        <v>10</v>
+      </c>
+      <c r="T8" s="5">
+        <f>ABS($K7-$L7)/$K7</f>
+        <v>0.74283652373073916</v>
+      </c>
+      <c r="U8" s="1">
+        <f>N7</f>
+        <v>836.37548900000002</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I9" s="11">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I9" s="8">
         <v>200000</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>5</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <f>F6</f>
         <v>3835.2730000000001</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <f>F3</f>
         <v>2306.6380709999999</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="5">
         <f t="shared" si="2"/>
         <v>0.3985726515426673</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="1">
         <f t="shared" si="3"/>
         <v>1528.6349290000003</v>
       </c>
+      <c r="Q9" s="8">
+        <v>200000</v>
+      </c>
+      <c r="S9" s="1">
+        <v>10</v>
+      </c>
+      <c r="T9" s="5">
+        <f>ABS($K10-$L10)/$K10</f>
+        <v>3.1886735701844075E-2</v>
+      </c>
+      <c r="U9" s="1">
+        <f>N10</f>
+        <v>142.25938700000006</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I10" s="11">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I10" s="8">
         <v>200000</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>10</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <f t="shared" ref="K10:K11" si="6">F7</f>
         <v>4461.3969999999999</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <f t="shared" ref="L10:L11" si="7">F4</f>
         <v>4319.1376129999999</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="5">
         <f t="shared" si="2"/>
         <v>3.1886735701844075E-2</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="1">
         <f t="shared" si="3"/>
         <v>142.25938700000006</v>
       </c>
+      <c r="Q10" s="8">
+        <v>300000</v>
+      </c>
+      <c r="S10" s="1">
+        <v>10</v>
+      </c>
+      <c r="T10" s="5">
+        <f>ABS($K13-$L13)/$K13</f>
+        <v>0.10518719213080246</v>
+      </c>
+      <c r="U10" s="1">
+        <f>N13</f>
+        <v>805.48004000000037</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I11" s="11">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I11" s="8">
         <v>200000</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>15</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <f t="shared" si="6"/>
         <v>5985.99</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1">
         <f t="shared" si="7"/>
         <v>6456.7361639999999</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="5">
         <f t="shared" si="2"/>
         <v>7.8641321485669061E-2</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="1">
         <f t="shared" si="3"/>
         <v>470.74616400000014</v>
       </c>
+      <c r="Q11" s="8">
+        <v>10000</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11" s="1">
+        <v>15</v>
+      </c>
+      <c r="T11" s="5">
+        <f>ABS($K5-$L5)/$K5</f>
+        <v>0.3840288617864463</v>
+      </c>
+      <c r="U11" s="1">
+        <f>N5</f>
+        <v>59.210594000000015</v>
+      </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I12" s="11">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I12" s="8">
         <v>300000</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>5</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1">
         <f>G6</f>
         <v>5686.8826669999999</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="1">
         <f>G3</f>
         <v>3659.3717149999998</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="5">
         <f t="shared" si="2"/>
         <v>0.35652413997659854</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="1">
         <f t="shared" si="3"/>
         <v>2027.5109520000001</v>
       </c>
+      <c r="Q12" s="8">
+        <v>100000</v>
+      </c>
+      <c r="S12" s="1">
+        <v>15</v>
+      </c>
+      <c r="T12" s="5">
+        <f>ABS($K8-$L8)/$K8</f>
+        <v>7.5249714372582113E-2</v>
+      </c>
+      <c r="U12" s="1">
+        <f>N8</f>
+        <v>238.70476099999996</v>
+      </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I13" s="11">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I13" s="8">
         <v>300000</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>10</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <f t="shared" ref="K13:K14" si="8">G7</f>
         <v>7657.5866670000005</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <f t="shared" ref="L13:L14" si="9">G4</f>
         <v>6852.1066270000001</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="5">
         <f t="shared" si="2"/>
         <v>0.10518719213080246</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="1">
         <f t="shared" si="3"/>
         <v>805.48004000000037</v>
       </c>
+      <c r="Q13" s="8">
+        <v>200000</v>
+      </c>
+      <c r="S13" s="1">
+        <v>15</v>
+      </c>
+      <c r="T13" s="5">
+        <f>ABS($K11-$L11)/$K11</f>
+        <v>7.8641321485669061E-2</v>
+      </c>
+      <c r="U13" s="1">
+        <f>N11</f>
+        <v>470.74616400000014</v>
+      </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I14" s="11">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I14" s="8">
         <v>300000</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>15</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <f t="shared" si="8"/>
         <v>8049.6593329999996</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="1">
         <f t="shared" si="9"/>
         <v>10243.30517</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="5">
         <f t="shared" si="2"/>
         <v>0.272514120940129</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="1">
         <f t="shared" si="3"/>
         <v>2193.645837</v>
       </c>
+      <c r="Q14" s="8">
+        <v>300000</v>
+      </c>
+      <c r="S14" s="1">
+        <v>15</v>
+      </c>
+      <c r="T14" s="5">
+        <f>ABS($K14-$L14)/$K14</f>
+        <v>0.272514120940129</v>
+      </c>
+      <c r="U14" s="1">
+        <f>N14</f>
+        <v>2193.645837</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="5">
+    <mergeCell ref="A3:A8"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="D1:G1"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
